--- a/v1/baliseliste.xlsx
+++ b/v1/baliseliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weyhak\OneDrive - Bane NOR\Dokumenter\GitHub\atsim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weyhak\OneDrive - Bane NOR\Dokumenter\GitHub\atsim\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC050E1AFF0D8170B9B83A9B85169FAD571" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FB07FE6-2FC5-435B-819B-47BF48E85913}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_FFC65FC050E1AFF0D8170B9B83A9B85169FAD571" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2B26C88-0685-4C7F-BABE-A9B8ED3762B8}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/v1/baliseliste.xlsx
+++ b/v1/baliseliste.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weyhak\OneDrive - Bane NOR\Dokumenter\GitHub\atsim\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_FFC65FC050E1AFF0D8170B9B83A9B85169FAD571" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2B26C88-0685-4C7F-BABE-A9B8ED3762B8}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_FFC65FC050E1AFF0D8170B9B83A9B85169FAD571" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2559CDA-E1B9-435F-9DE6-752A3BBDC187}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="24675" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Balisegrupper" sheetId="1" r:id="rId1"/>
+    <sheet name="Baliser" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Balisegrupper!$A$2:$V$37</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="67">
   <si>
     <t>Retning</t>
   </si>
@@ -55,15 +59,6 @@
     <t>Segment</t>
   </si>
   <si>
-    <t>X-ord</t>
-  </si>
-  <si>
-    <t>Y-ord</t>
-  </si>
-  <si>
-    <t>Z-ord</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -209,6 +204,27 @@
   </si>
   <si>
     <t>6, 14</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>P-balise</t>
+  </si>
+  <si>
+    <t>A-balise</t>
+  </si>
+  <si>
+    <t>B-balise</t>
+  </si>
+  <si>
+    <t>C-balise</t>
   </si>
 </sst>
 </file>
@@ -232,12 +248,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -267,17 +289,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -610,18 +697,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>53774</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>52692</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5">
+        <v>7</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>53789</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>7</v>
+      </c>
+      <c r="N5" s="5">
+        <v>12</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>52666</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5">
+        <v>7</v>
+      </c>
+      <c r="N6" s="5">
+        <v>12</v>
+      </c>
+      <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>51090</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5">
+        <v>4</v>
+      </c>
+      <c r="M7" s="5">
+        <v>14</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>55173</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5">
+        <v>14</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>53497</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="5">
+        <v>14</v>
+      </c>
+      <c r="U9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>52975</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="5">
+        <v>14</v>
+      </c>
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>53508</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="5">
+        <v>14</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>52975</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="5">
+        <v>14</v>
+      </c>
+      <c r="U12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>53239</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4</v>
+      </c>
+      <c r="M13" s="5">
+        <v>14</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>53239</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5">
+        <v>14</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>53239</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="5">
+        <v>4</v>
+      </c>
+      <c r="M15" s="5">
+        <v>14</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>53239</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>4</v>
+      </c>
+      <c r="M16" s="5">
+        <v>14</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>52511</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="5">
+        <v>4</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>53942</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="5">
+        <v>4</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L3:N18">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text=",">
+      <formula>NOT(ISERROR(SEARCH(",",L3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(H3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34885E4C-D7EC-4ED1-9CAB-36B651F9BBE1}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,42 +1515,36 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>53774</v>
@@ -691,42 +1553,36 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>53777</v>
@@ -735,42 +1591,36 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>52692</v>
@@ -779,42 +1629,36 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>52689</v>
@@ -823,42 +1667,36 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>53789</v>
@@ -867,42 +1705,36 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>53792</v>
@@ -911,42 +1743,36 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
         <v>6</v>
       </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>52666</v>
@@ -955,42 +1781,36 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>52663</v>
@@ -999,42 +1819,36 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>51087</v>
@@ -1043,42 +1857,36 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10">
-        <v>8</v>
-      </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>51090</v>
@@ -1087,42 +1895,36 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11">
         <v>4</v>
       </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>51093</v>
@@ -1131,42 +1933,36 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>51096</v>
@@ -1175,42 +1971,36 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
         <v>6</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13">
-        <v>14</v>
-      </c>
-      <c r="M13">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>55176</v>
@@ -1219,42 +2009,36 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>55173</v>
@@ -1263,42 +2047,36 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15">
         <v>4</v>
       </c>
-      <c r="M15">
-        <v>14</v>
-      </c>
-      <c r="N15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>55170</v>
@@ -1307,42 +2085,36 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="K16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>53497</v>
@@ -1350,43 +2122,37 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
         <v>54</v>
       </c>
-      <c r="J17">
-        <v>23</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
       <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>53500</v>
@@ -1394,43 +2160,37 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>54</v>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>6</v>
-      </c>
-      <c r="N18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>52975</v>
@@ -1438,43 +2198,37 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>55</v>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>23</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
       </c>
       <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>52978</v>
@@ -1482,43 +2236,37 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>55</v>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>53508</v>
@@ -1526,43 +2274,37 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>54</v>
+      <c r="I21">
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>26</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
       </c>
       <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>53505</v>
@@ -1570,43 +2312,37 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>54</v>
+      <c r="I22">
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>9</v>
-      </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="N22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>52975</v>
@@ -1614,43 +2350,37 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
         <v>55</v>
       </c>
-      <c r="J23">
-        <v>26</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
       <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>52978</v>
@@ -1658,43 +2388,37 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>55</v>
+      <c r="I24">
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>9</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-      <c r="N24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>53239</v>
@@ -1702,43 +2426,37 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
         <v>54</v>
       </c>
-      <c r="J25">
-        <v>17</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>14</v>
-      </c>
-      <c r="N25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>53242</v>
@@ -1746,43 +2464,37 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>54</v>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>9</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>53239</v>
@@ -1790,43 +2502,37 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>55</v>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>14</v>
-      </c>
-      <c r="N27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>53236</v>
@@ -1834,43 +2540,37 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>55</v>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <v>53239</v>
@@ -1878,43 +2578,37 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>54</v>
+      <c r="I29">
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="N29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>53242</v>
@@ -1922,43 +2616,37 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>54</v>
+      <c r="I30">
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>53239</v>
@@ -1966,43 +2654,37 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
         <v>55</v>
       </c>
-      <c r="J31">
-        <v>20</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
-      </c>
-      <c r="M31">
-        <v>14</v>
-      </c>
-      <c r="N31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>53236</v>
@@ -2010,43 +2692,37 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>55</v>
+      <c r="I32">
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>9</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33">
         <v>52511</v>
@@ -2055,42 +2731,36 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
-      <c r="M33" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="L33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>52508</v>
@@ -2099,42 +2769,36 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J34">
-        <v>11</v>
-      </c>
-      <c r="K34" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>9</v>
-      </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
-      <c r="N34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G35">
         <v>53942</v>
@@ -2143,42 +2807,36 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J35">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>53945</v>
@@ -2187,21 +2845,15 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J36">
-        <v>11</v>
-      </c>
-      <c r="K36" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>9</v>
-      </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
         <v>14</v>
       </c>
     </row>
